--- a/Documents/KeHoachThucHien_Nhom11.xlsx
+++ b/Documents/KeHoachThucHien_Nhom11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IUH\Ki9\CongNgheMoi\BaiTapNhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IUH\Ki9\CongNgheMoi\BaiTapNhom\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB814B3F-5576-49E8-A6B8-554D6AD06362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9E3CE0-EFB8-417C-9331-92BFAC0E5C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Tên đồ án:</t>
   </si>
@@ -289,12 +289,15 @@
 7. Test UX/UI giao diện được hiện thực.</t>
     </r>
   </si>
+  <si>
+    <t>Nhóm 11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +365,19 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -412,11 +428,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -468,6 +481,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,245 +772,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="92.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16" style="17" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>44325</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>44356</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>44539</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>44265</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>44296</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>44479</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>44510</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>44207</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>44388</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
